--- a/projet_SID32/sample_files/product_type_example.xlsx
+++ b/projet_SID32/sample_files/product_type_example.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,6 +501,40 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PT04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Viandes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Viandes fraîches</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PT05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Produits laitiers</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Produits laitiers frais</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
